--- a/Circling Radii.xlsx
+++ b/Circling Radii.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calismalar\Circling Radii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calismalar\Circling-Area-Radii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBFB7B-C40C-439A-BB94-5FC9FF52C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EBE228-764A-4C44-82BD-C3A124EADE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B5DA4638-BD86-401A-9241-77E715142156}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B5DA4638-BD86-401A-9241-77E715142156}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="144">
   <si>
     <t>A</t>
   </si>
@@ -396,217 +396,40 @@
     <t>(16.79)</t>
   </si>
   <si>
-    <t>(3.99)</t>
-  </si>
-  <si>
-    <t>(5.14)</t>
-  </si>
-  <si>
-    <t>(6.42)</t>
-  </si>
-  <si>
     <t>(6.58)</t>
   </si>
   <si>
-    <t>(4.03)</t>
-  </si>
-  <si>
-    <t>(5.25)</t>
-  </si>
-  <si>
-    <t>(6.56)</t>
-  </si>
-  <si>
-    <t>(8.54)</t>
-  </si>
-  <si>
     <t>(6.74)</t>
   </si>
   <si>
-    <t>(4.08)</t>
-  </si>
-  <si>
-    <t>(6.71)</t>
-  </si>
-  <si>
-    <t>(8.73)</t>
-  </si>
-  <si>
     <t>(6.91)</t>
   </si>
   <si>
-    <t>(3.19)</t>
-  </si>
-  <si>
-    <t>(4.12)</t>
-  </si>
-  <si>
-    <t>(6.86)</t>
-  </si>
-  <si>
-    <t>(8.93)</t>
-  </si>
-  <si>
     <t>(7.08)</t>
   </si>
   <si>
-    <t>(3.22)</t>
-  </si>
-  <si>
-    <t>(4.16)</t>
-  </si>
-  <si>
-    <t>(5.60)</t>
-  </si>
-  <si>
-    <t>(7.01)</t>
-  </si>
-  <si>
-    <t>(9.14)</t>
-  </si>
-  <si>
     <t>(7.25)</t>
   </si>
   <si>
-    <t>(3.25)</t>
-  </si>
-  <si>
-    <t>(4.21)</t>
-  </si>
-  <si>
-    <t>(5.73)</t>
-  </si>
-  <si>
-    <t>(7.17)</t>
-  </si>
-  <si>
-    <t>(9.35)</t>
-  </si>
-  <si>
     <t>(7.43)</t>
   </si>
   <si>
-    <t>(3.29)</t>
-  </si>
-  <si>
-    <t>(4.25)</t>
-  </si>
-  <si>
-    <t>(5.86)</t>
-  </si>
-  <si>
-    <t>(7.34)</t>
-  </si>
-  <si>
-    <t>(9.57)</t>
-  </si>
-  <si>
     <t>(7.62)</t>
   </si>
   <si>
-    <t>(3.32)</t>
-  </si>
-  <si>
-    <t>(4.30)</t>
-  </si>
-  <si>
-    <t>(6.00)</t>
-  </si>
-  <si>
-    <t>(7.51)</t>
-  </si>
-  <si>
-    <t>(9.80)</t>
-  </si>
-  <si>
     <t>(7.82)</t>
   </si>
   <si>
-    <t>(3.36)</t>
-  </si>
-  <si>
-    <t>(4.35)</t>
-  </si>
-  <si>
-    <t>(6.14)</t>
-  </si>
-  <si>
-    <t>(7.68)</t>
-  </si>
-  <si>
-    <t>(10.03)</t>
-  </si>
-  <si>
     <t>(8.02)</t>
   </si>
   <si>
-    <t>(3.39)</t>
-  </si>
-  <si>
-    <t>(4.40)</t>
-  </si>
-  <si>
-    <t>(6.28)</t>
-  </si>
-  <si>
-    <t>(7.87)</t>
-  </si>
-  <si>
-    <t>(10.28)</t>
-  </si>
-  <si>
     <t>(8.23)</t>
   </si>
   <si>
-    <t>(3.43)</t>
-  </si>
-  <si>
-    <t>(4.45)</t>
-  </si>
-  <si>
-    <t>(6.43)</t>
-  </si>
-  <si>
-    <t>(8.06)</t>
-  </si>
-  <si>
-    <t>(10.53)</t>
-  </si>
-  <si>
     <t>(8.45)</t>
   </si>
   <si>
-    <t>(3.47)</t>
-  </si>
-  <si>
-    <t>(4.50)</t>
-  </si>
-  <si>
-    <t>(6.59)</t>
-  </si>
-  <si>
-    <t>(8.26)</t>
-  </si>
-  <si>
-    <t>(10.79)</t>
-  </si>
-  <si>
     <t>(8.67)</t>
-  </si>
-  <si>
-    <t>(3.51)</t>
-  </si>
-  <si>
-    <t>(4.55)</t>
-  </si>
-  <si>
-    <t>(6.75)</t>
-  </si>
-  <si>
-    <t>(8.46)</t>
-  </si>
-  <si>
-    <t>(11.06)</t>
   </si>
   <si>
     <t>(8.90)</t>
@@ -712,6 +535,44 @@
   <si>
     <t>Rev. 0</t>
   </si>
+  <si>
+    <t>Rev. 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do Not Use For Real Operations</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  —  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egitim.ibosoft.net.tr</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +584,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +663,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -811,7 +696,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1329,17 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1487,6 +1361,37 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1496,7 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1521,13 +1426,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1447,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1568,26 +1466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1615,13 +1496,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1637,45 +1563,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1700,17 +1590,23 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1736,28 +1632,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,32 +1641,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1356D71-E6F4-4044-8E90-057E1BEDD2D0}">
   <dimension ref="B1:AH46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -2153,45 +2100,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="V1" s="79" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="V1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -2241,53 +2188,53 @@
       <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="80" t="s">
+      <c r="N4" s="75"/>
+      <c r="O4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="80" t="s">
+      <c r="P4" s="75"/>
+      <c r="Q4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82" t="s">
+      <c r="R4" s="75"/>
+      <c r="S4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="83"/>
+      <c r="T4" s="73"/>
       <c r="V4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="80" t="s">
+      <c r="X4" s="75"/>
+      <c r="Y4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="80" t="s">
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="80" t="s">
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="80" t="s">
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="82" t="s">
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AH4" s="83"/>
+      <c r="AH4" s="73"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
@@ -2318,7 +2265,7 @@
         <f t="shared" ref="K5:K17" si="0">C$39+2*MAX((((((C5+$F$44)/3600*1852)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1852),((C5+$F$44)/60/PI()))</f>
         <v>1.6697404918965486</v>
       </c>
-      <c r="L5" s="27" t="str">
+      <c r="L5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((K5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(3.09)</v>
       </c>
@@ -2326,7 +2273,7 @@
         <f t="shared" ref="M5:M17" si="1">D$39+2*MAX((((((D5+$F$44)/3600*1852)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1852),((D5+$F$44)/60/PI()))</f>
         <v>2.5936098986816818</v>
       </c>
-      <c r="N5" s="27" t="str">
+      <c r="N5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((M5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(4.80)</v>
       </c>
@@ -2334,7 +2281,7 @@
         <f t="shared" ref="O5:O17" si="2">E$39+2*MAX((((((E5+$F$44)/3600*1852)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1852),((E5+$F$44)/60/PI()))</f>
         <v>4.1098560163017623</v>
       </c>
-      <c r="P5" s="27" t="str">
+      <c r="P5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((O5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(7.61)</v>
       </c>
@@ -2342,7 +2289,7 @@
         <f t="shared" ref="Q5:Q17" si="3">F$39+2*MAX((((((F5+$F$44)/3600*1852)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1852),((F5+$F$44)/60/PI()))</f>
         <v>5.1479809414279831</v>
       </c>
-      <c r="R5" s="27" t="str">
+      <c r="R5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((Q5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(9.53)</v>
       </c>
@@ -2350,7 +2297,7 @@
         <f t="shared" ref="S5:S17" si="4">G$39+2*MAX((((((G5+$F$44)/3600*1852)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1852),((G5+$F$44)/60/PI()))</f>
         <v>6.7425749618981525</v>
       </c>
-      <c r="T5" s="29" t="str">
+      <c r="T5" s="27" t="str">
         <f>"(" &amp; TEXT((ROUND((S5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(12.49)</v>
       </c>
@@ -2361,7 +2308,7 @@
         <f t="shared" ref="W5:W17" si="5">C$39+2*MAX((((((C5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((C5+$H$44)/60/PI()))</f>
         <v>1.6697404918965486</v>
       </c>
-      <c r="X5" s="27" t="str">
+      <c r="X5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((W5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(3.09)</v>
       </c>
@@ -2369,7 +2316,7 @@
         <f t="shared" ref="Y5:Y17" si="6">D$39+2*MAX((((((D5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((D5+$H$44)/60/PI()))</f>
         <v>2.15617930405321</v>
       </c>
-      <c r="Z5" s="27" t="str">
+      <c r="Z5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((Y5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(3.99)</v>
       </c>
@@ -2377,7 +2324,7 @@
         <f t="shared" ref="AA5:AA17" si="7">E$39+2*MAX((((((E5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((E5+$H$44)/60/PI()))</f>
         <v>2.7757071573982066</v>
       </c>
-      <c r="AB5" s="27" t="str">
+      <c r="AB5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((AA5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(5.14)</v>
       </c>
@@ -2385,7 +2332,7 @@
         <f t="shared" ref="AC5:AC17" si="8">F$39+2*MAX((((((F5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((F5+$H$44)/60/PI()))</f>
         <v>3.4671151240878499</v>
       </c>
-      <c r="AD5" s="27" t="str">
+      <c r="AD5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((AC5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(6.42)</v>
       </c>
@@ -2393,7 +2340,7 @@
         <f t="shared" ref="AE5:AE17" si="9">G$39+2*MAX((((((G5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((G5+$H$44)/60/PI()))</f>
         <v>4.5093295211243989</v>
       </c>
-      <c r="AF5" s="27" t="str">
+      <c r="AF5" s="25" t="str">
         <f>"(" &amp; TEXT((ROUND((AE5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(8.35)</v>
       </c>
@@ -2401,7 +2348,7 @@
         <f t="shared" ref="AG5:AG17" si="10">H$39+2*MAX((((((H5+$H$44)/3600*1852)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1852),((H5+$H$44)/60/PI()))</f>
         <v>3.5545903046648473</v>
       </c>
-      <c r="AH5" s="29" t="str">
+      <c r="AH5" s="27" t="str">
         <f>"(" &amp; TEXT((ROUND((AG5*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(6.58)</v>
       </c>
@@ -2435,7 +2382,7 @@
         <f t="shared" si="0"/>
         <v>1.6862607749894873</v>
       </c>
-      <c r="L6" s="27" t="str">
+      <c r="L6" s="25" t="str">
         <f t="shared" ref="L6:L17" si="11">"(" &amp; TEXT((ROUND((K6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(3.12)</v>
       </c>
@@ -2443,7 +2390,7 @@
         <f t="shared" si="1"/>
         <v>2.6493310247145452</v>
       </c>
-      <c r="N6" s="27" t="str">
+      <c r="N6" s="25" t="str">
         <f t="shared" ref="N6:N17" si="12">"(" &amp; TEXT((ROUND((M6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(4.91)</v>
       </c>
@@ -2451,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>4.204210359082996</v>
       </c>
-      <c r="P6" s="27" t="str">
+      <c r="P6" s="25" t="str">
         <f t="shared" ref="P6:P17" si="13">"(" &amp; TEXT((ROUND((O6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(7.79)</v>
       </c>
@@ -2459,7 +2406,7 @@
         <f t="shared" si="3"/>
         <v>5.2677229689108112</v>
       </c>
-      <c r="R6" s="27" t="str">
+      <c r="R6" s="25" t="str">
         <f t="shared" ref="R6:R17" si="14">"(" &amp; TEXT((ROUND((Q6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(9.76)</v>
       </c>
@@ -2467,7 +2414,7 @@
         <f t="shared" si="4"/>
         <v>6.9023430141448596</v>
       </c>
-      <c r="T6" s="29" t="str">
+      <c r="T6" s="27" t="str">
         <f t="shared" ref="T6:T17" si="15">"(" &amp; TEXT((ROUND((S6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(12.78)</v>
       </c>
@@ -2478,7 +2425,7 @@
         <f t="shared" si="5"/>
         <v>1.6862607749894873</v>
       </c>
-      <c r="X6" s="27" t="str">
+      <c r="X6" s="25" t="str">
         <f t="shared" ref="X6:X17" si="16">"(" &amp; TEXT((ROUND((W6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(3.12)</v>
       </c>
@@ -2486,7 +2433,7 @@
         <f t="shared" si="6"/>
         <v>2.1783442824611412</v>
       </c>
-      <c r="Z6" s="27" t="str">
+      <c r="Z6" s="25" t="str">
         <f t="shared" ref="Z6:Z17" si="17">"(" &amp; TEXT((ROUND((Y6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(4.03)</v>
       </c>
@@ -2494,7 +2441,7 @@
         <f t="shared" si="7"/>
         <v>2.8351895445707673</v>
       </c>
-      <c r="AB6" s="27" t="str">
+      <c r="AB6" s="25" t="str">
         <f t="shared" ref="AB6:AB17" si="18">"(" &amp; TEXT((ROUND((AA6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(5.25)</v>
       </c>
@@ -2502,7 +2449,7 @@
         <f t="shared" si="8"/>
         <v>3.5426022869423983</v>
       </c>
-      <c r="AD6" s="27" t="str">
+      <c r="AD6" s="25" t="str">
         <f t="shared" ref="AD6:AD17" si="19">"(" &amp; TEXT((ROUND((AC6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(6.56)</v>
       </c>
@@ -2510,7 +2457,7 @@
         <f t="shared" si="9"/>
         <v>4.6100496879065327</v>
       </c>
-      <c r="AF6" s="27" t="str">
+      <c r="AF6" s="25" t="str">
         <f t="shared" ref="AF6:AF17" si="20">"(" &amp; TEXT((ROUND((AE6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(8.54)</v>
       </c>
@@ -2518,7 +2465,7 @@
         <f t="shared" si="10"/>
         <v>3.6405141728480626</v>
       </c>
-      <c r="AH6" s="29" t="str">
+      <c r="AH6" s="27" t="str">
         <f t="shared" ref="AH6:AH17" si="21">"(" &amp; TEXT((ROUND((AG6*1852/1000),2)),"0.00") &amp; ")"</f>
         <v>(6.74)</v>
       </c>
@@ -2552,7 +2499,7 @@
         <f t="shared" si="0"/>
         <v>1.7031418092867678</v>
       </c>
-      <c r="L7" s="27" t="str">
+      <c r="L7" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.15)</v>
       </c>
@@ -2560,7 +2507,7 @@
         <f t="shared" si="1"/>
         <v>2.7069740595718059</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.01)</v>
       </c>
@@ -2568,7 +2515,7 @@
         <f t="shared" si="2"/>
         <v>4.3018056082255942</v>
       </c>
-      <c r="P7" s="27" t="str">
+      <c r="P7" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(7.97)</v>
       </c>
@@ -2576,7 +2523,7 @@
         <f t="shared" si="3"/>
         <v>5.3915669349239019</v>
       </c>
-      <c r="R7" s="27" t="str">
+      <c r="R7" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(9.99)</v>
       </c>
@@ -2584,7 +2531,7 @@
         <f t="shared" si="4"/>
         <v>7.0675371744546114</v>
       </c>
-      <c r="T7" s="29" t="str">
+      <c r="T7" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(13.09)</v>
       </c>
@@ -2595,7 +2542,7 @@
         <f t="shared" si="5"/>
         <v>1.7031418092867678</v>
       </c>
-      <c r="X7" s="27" t="str">
+      <c r="X7" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.15)</v>
       </c>
@@ -2603,7 +2550,7 @@
         <f t="shared" si="6"/>
         <v>2.2009867256983484</v>
       </c>
-      <c r="Z7" s="27" t="str">
+      <c r="Z7" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.08)</v>
       </c>
@@ -2611,7 +2558,7 @@
         <f t="shared" si="7"/>
         <v>2.8967150475268122</v>
       </c>
-      <c r="AB7" s="27" t="str">
+      <c r="AB7" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(5.36)</v>
       </c>
@@ -2619,7 +2566,7 @@
         <f t="shared" si="8"/>
         <v>3.6206753731219696</v>
       </c>
-      <c r="AD7" s="27" t="str">
+      <c r="AD7" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(6.71)</v>
       </c>
@@ -2627,7 +2574,7 @@
         <f t="shared" si="9"/>
         <v>4.7141905542678524</v>
       </c>
-      <c r="AF7" s="27" t="str">
+      <c r="AF7" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(8.73)</v>
       </c>
@@ -2635,7 +2582,7 @@
         <f t="shared" si="10"/>
         <v>3.7293729818840782</v>
       </c>
-      <c r="AH7" s="29" t="str">
+      <c r="AH7" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(6.91)</v>
       </c>
@@ -2669,7 +2616,7 @@
         <f t="shared" si="0"/>
         <v>1.7349589295134094</v>
       </c>
-      <c r="L8" s="27" t="str">
+      <c r="L8" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.21)</v>
       </c>
@@ -2677,7 +2624,7 @@
         <f t="shared" si="1"/>
         <v>2.7666402024413244</v>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.12)</v>
       </c>
@@ -2685,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v>4.4027555589275984</v>
       </c>
-      <c r="P8" s="27" t="str">
+      <c r="P8" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(8.15)</v>
       </c>
@@ -2693,7 +2640,7 @@
         <f t="shared" si="3"/>
         <v>5.519691597133102</v>
       </c>
-      <c r="R8" s="27" t="str">
+      <c r="R8" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(10.22)</v>
       </c>
@@ -2701,7 +2648,7 @@
         <f t="shared" si="4"/>
         <v>7.2382883447987654</v>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(13.41)</v>
       </c>
@@ -2712,7 +2659,7 @@
         <f t="shared" si="5"/>
         <v>1.7203942051179293</v>
       </c>
-      <c r="X8" s="27" t="str">
+      <c r="X8" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.19)</v>
       </c>
@@ -2720,7 +2667,7 @@
         <f t="shared" si="6"/>
         <v>2.2241278544239096</v>
       </c>
-      <c r="Z8" s="27" t="str">
+      <c r="Z8" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.12)</v>
       </c>
@@ -2728,7 +2675,7 @@
         <f t="shared" si="7"/>
         <v>2.960355404459083</v>
       </c>
-      <c r="AB8" s="27" t="str">
+      <c r="AB8" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(5.48)</v>
       </c>
@@ -2736,7 +2683,7 @@
         <f t="shared" si="8"/>
         <v>3.7014470741294292</v>
       </c>
-      <c r="AD8" s="27" t="str">
+      <c r="AD8" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(6.86)</v>
       </c>
@@ -2744,7 +2691,7 @@
         <f t="shared" si="9"/>
         <v>4.8218346427665413</v>
       </c>
-      <c r="AF8" s="27" t="str">
+      <c r="AF8" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(8.93)</v>
       </c>
@@ -2752,7 +2699,7 @@
         <f t="shared" si="10"/>
         <v>3.8212377643275137</v>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(7.08)</v>
       </c>
@@ -2786,7 +2733,7 @@
         <f t="shared" si="0"/>
         <v>1.7708321928329227</v>
       </c>
-      <c r="L9" s="27" t="str">
+      <c r="L9" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.28)</v>
       </c>
@@ -2794,7 +2741,7 @@
         <f t="shared" si="1"/>
         <v>2.8284065895826398</v>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.24)</v>
       </c>
@@ -2802,7 +2749,7 @@
         <f t="shared" si="2"/>
         <v>4.5072491518221538</v>
       </c>
-      <c r="P9" s="27" t="str">
+      <c r="P9" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(8.35)</v>
       </c>
@@ -2810,7 +2757,7 @@
         <f t="shared" si="3"/>
         <v>5.6522015371180183</v>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(10.47)</v>
       </c>
@@ -2818,7 +2765,7 @@
         <f t="shared" si="4"/>
         <v>7.4148691837293397</v>
       </c>
-      <c r="T9" s="29" t="str">
+      <c r="T9" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(13.73)</v>
       </c>
@@ -2829,7 +2776,7 @@
         <f t="shared" si="5"/>
         <v>1.7380391831420505</v>
       </c>
-      <c r="X9" s="27" t="str">
+      <c r="X9" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.22)</v>
       </c>
@@ -2837,7 +2784,7 @@
         <f t="shared" si="6"/>
         <v>2.2477782789673655</v>
       </c>
-      <c r="Z9" s="27" t="str">
+      <c r="Z9" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.16)</v>
       </c>
@@ -2845,7 +2792,7 @@
         <f t="shared" si="7"/>
         <v>3.0262297263651439</v>
       </c>
-      <c r="AB9" s="27" t="str">
+      <c r="AB9" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(5.60)</v>
       </c>
@@ -2853,7 +2800,7 @@
         <f t="shared" si="8"/>
         <v>3.7849833197548199</v>
       </c>
-      <c r="AD9" s="27" t="str">
+      <c r="AD9" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.01)</v>
       </c>
@@ -2861,7 +2808,7 @@
         <f t="shared" si="9"/>
         <v>4.9331538414268179</v>
       </c>
-      <c r="AF9" s="27" t="str">
+      <c r="AF9" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(9.14)</v>
       </c>
@@ -2869,7 +2816,7 @@
         <f t="shared" si="10"/>
         <v>3.9162620593904673</v>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(7.25)</v>
       </c>
@@ -2903,7 +2850,7 @@
         <f t="shared" si="0"/>
         <v>1.8079394000933207</v>
       </c>
-      <c r="L10" s="27" t="str">
+      <c r="L10" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.35)</v>
       </c>
@@ -2911,7 +2858,7 @@
         <f t="shared" si="1"/>
         <v>2.89232462322911</v>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.36)</v>
       </c>
@@ -2919,7 +2866,7 @@
         <f t="shared" si="2"/>
         <v>4.6153738406566696</v>
       </c>
-      <c r="P10" s="27" t="str">
+      <c r="P10" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(8.55)</v>
       </c>
@@ -2927,7 +2874,7 @@
         <f t="shared" si="3"/>
         <v>5.7893257980168631</v>
       </c>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(10.72)</v>
       </c>
@@ -2935,7 +2882,7 @@
         <f t="shared" si="4"/>
         <v>7.5974684877502918</v>
       </c>
-      <c r="T10" s="29" t="str">
+      <c r="T10" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(14.07)</v>
       </c>
@@ -2946,7 +2893,7 @@
         <f t="shared" si="5"/>
         <v>1.7560661330295926</v>
       </c>
-      <c r="X10" s="27" t="str">
+      <c r="X10" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.25)</v>
       </c>
@@ -2954,7 +2901,7 @@
         <f t="shared" si="6"/>
         <v>2.2719379993287152</v>
       </c>
-      <c r="Z10" s="27" t="str">
+      <c r="Z10" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.21)</v>
       </c>
@@ -2962,7 +2909,7 @@
         <f t="shared" si="7"/>
         <v>3.0943931453937639</v>
       </c>
-      <c r="AB10" s="27" t="str">
+      <c r="AB10" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(5.73)</v>
       </c>
@@ -2970,7 +2917,7 @@
         <f t="shared" si="8"/>
         <v>3.8714285022139632</v>
       </c>
-      <c r="AD10" s="27" t="str">
+      <c r="AD10" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.17)</v>
       </c>
@@ -2978,7 +2925,7 @@
         <f t="shared" si="9"/>
         <v>5.0482671703850537</v>
       </c>
-      <c r="AF10" s="27" t="str">
+      <c r="AF10" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(9.35)</v>
       </c>
@@ -2986,7 +2933,7 @@
         <f t="shared" si="10"/>
         <v>4.014577835686441</v>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(7.43)</v>
       </c>
@@ -3020,7 +2967,7 @@
         <f t="shared" si="0"/>
         <v>1.8463767005960974</v>
       </c>
-      <c r="L11" s="27" t="str">
+      <c r="L11" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.42)</v>
       </c>
@@ -3028,7 +2975,7 @@
         <f t="shared" si="1"/>
         <v>2.9585326907014347</v>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.48)</v>
       </c>
@@ -3036,7 +2983,7 @@
         <f t="shared" si="2"/>
         <v>4.7273293137777888</v>
       </c>
-      <c r="P11" s="27" t="str">
+      <c r="P11" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(8.76)</v>
       </c>
@@ -3044,7 +2991,7 @@
         <f t="shared" si="3"/>
         <v>5.9312195735744355</v>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(10.98)</v>
       </c>
@@ -3052,7 +2999,7 @@
         <f t="shared" si="4"/>
         <v>7.7862804567688144</v>
       </c>
-      <c r="T11" s="29" t="str">
+      <c r="T11" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(14.42)</v>
       </c>
@@ -3063,7 +3010,7 @@
         <f t="shared" si="5"/>
         <v>1.7745068857691735</v>
       </c>
-      <c r="X11" s="27" t="str">
+      <c r="X11" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.29)</v>
       </c>
@@ -3071,7 +3018,7 @@
         <f t="shared" si="6"/>
         <v>2.2966388464965775</v>
       </c>
-      <c r="Z11" s="27" t="str">
+      <c r="Z11" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.25)</v>
       </c>
@@ -3079,7 +3026,7 @@
         <f t="shared" si="7"/>
         <v>3.1649715480616485</v>
       </c>
-      <c r="AB11" s="27" t="str">
+      <c r="AB11" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(5.86)</v>
       </c>
@@ -3087,7 +3034,7 @@
         <f t="shared" si="8"/>
         <v>3.9608804579618924</v>
       </c>
-      <c r="AD11" s="27" t="str">
+      <c r="AD11" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.34)</v>
       </c>
@@ -3095,7 +3042,7 @@
         <f t="shared" si="9"/>
         <v>5.1672970561637399</v>
       </c>
-      <c r="AF11" s="27" t="str">
+      <c r="AF11" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(9.57)</v>
       </c>
@@ -3103,7 +3050,7 @@
         <f t="shared" si="10"/>
         <v>4.116293850681056</v>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(7.62)</v>
       </c>
@@ -3137,7 +3084,7 @@
         <f t="shared" si="0"/>
         <v>1.8861766588898334</v>
       </c>
-      <c r="L12" s="27" t="str">
+      <c r="L12" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.49)</v>
       </c>
@@ -3145,7 +3092,7 @@
         <f t="shared" si="1"/>
         <v>3.0270878325667807</v>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.61)</v>
       </c>
@@ -3153,7 +3100,7 @@
         <f t="shared" si="2"/>
         <v>4.8432485197112483</v>
       </c>
-      <c r="P12" s="27" t="str">
+      <c r="P12" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(8.97)</v>
       </c>
@@ -3161,7 +3108,7 @@
         <f t="shared" si="3"/>
         <v>6.0781264462009403</v>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(11.26)</v>
       </c>
@@ -3169,7 +3116,7 @@
         <f t="shared" si="4"/>
         <v>7.9816496982268657</v>
       </c>
-      <c r="T12" s="29" t="str">
+      <c r="T12" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(14.78)</v>
       </c>
@@ -3180,7 +3127,7 @@
         <f t="shared" si="5"/>
         <v>1.7933614413607935</v>
       </c>
-      <c r="X12" s="27" t="str">
+      <c r="X12" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.32)</v>
       </c>
@@ -3188,7 +3135,7 @@
         <f t="shared" si="6"/>
         <v>2.3218808204709522</v>
       </c>
-      <c r="Z12" s="27" t="str">
+      <c r="Z12" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.30)</v>
       </c>
@@ -3196,7 +3143,7 @@
         <f t="shared" si="7"/>
         <v>3.2380487471054344</v>
       </c>
-      <c r="AB12" s="27" t="str">
+      <c r="AB12" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(6.00)</v>
       </c>
@@ -3204,7 +3151,7 @@
         <f t="shared" si="8"/>
         <v>4.0534927449886826</v>
       </c>
-      <c r="AD12" s="27" t="str">
+      <c r="AD12" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.51)</v>
       </c>
@@ -3212,7 +3159,7 @@
         <f t="shared" si="9"/>
         <v>5.2904607444420968</v>
       </c>
-      <c r="AF12" s="27" t="str">
+      <c r="AF12" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(9.80)</v>
       </c>
@@ -3220,7 +3167,7 @@
         <f t="shared" si="10"/>
         <v>4.2215501793205608</v>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(7.82)</v>
       </c>
@@ -3254,7 +3201,7 @@
         <f t="shared" si="0"/>
         <v>1.9274182313454871</v>
       </c>
-      <c r="L13" s="27" t="str">
+      <c r="L13" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.57)</v>
       </c>
@@ -3262,7 +3209,7 @@
         <f t="shared" si="1"/>
         <v>3.09813652899971</v>
       </c>
-      <c r="N13" s="27" t="str">
+      <c r="N13" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.74)</v>
       </c>
@@ -3270,7 +3217,7 @@
         <f t="shared" si="2"/>
         <v>4.9633062922858509</v>
       </c>
-      <c r="P13" s="27" t="str">
+      <c r="P13" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(9.19)</v>
       </c>
@@ -3278,7 +3225,7 @@
         <f t="shared" si="3"/>
         <v>6.230214414558608</v>
       </c>
-      <c r="R13" s="27" t="str">
+      <c r="R13" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(11.54)</v>
       </c>
@@ -3286,7 +3233,7 @@
         <f t="shared" si="4"/>
         <v>8.1837386260208831</v>
       </c>
-      <c r="T13" s="29" t="str">
+      <c r="T13" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(15.16)</v>
       </c>
@@ -3297,7 +3244,7 @@
         <f t="shared" si="5"/>
         <v>1.8126510204635311</v>
       </c>
-      <c r="X13" s="27" t="str">
+      <c r="X13" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.36)</v>
       </c>
@@ -3305,7 +3252,7 @@
         <f t="shared" si="6"/>
         <v>2.3476957522404573</v>
       </c>
-      <c r="Z13" s="27" t="str">
+      <c r="Z13" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.35)</v>
       </c>
@@ -3313,7 +3260,7 @@
         <f t="shared" si="7"/>
         <v>3.3137349603824982</v>
       </c>
-      <c r="AB13" s="27" t="str">
+      <c r="AB13" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(6.14)</v>
       </c>
@@ -3321,7 +3268,7 @@
         <f t="shared" si="8"/>
         <v>4.1493712721605993</v>
       </c>
-      <c r="AD13" s="27" t="str">
+      <c r="AD13" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.68)</v>
       </c>
@@ -3329,7 +3276,7 @@
         <f t="shared" si="9"/>
         <v>5.4178606233666127</v>
       </c>
-      <c r="AF13" s="27" t="str">
+      <c r="AF13" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(10.03)</v>
       </c>
@@ -3337,7 +3284,7 @@
         <f t="shared" si="10"/>
         <v>4.3304631758739323</v>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(8.02)</v>
       </c>
@@ -3371,7 +3318,7 @@
         <f t="shared" si="0"/>
         <v>1.970137228300936</v>
       </c>
-      <c r="L14" s="27" t="str">
+      <c r="L14" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.65)</v>
       </c>
@@ -3379,7 +3326,7 @@
         <f t="shared" si="1"/>
         <v>3.1717716952029029</v>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="N14" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(5.87)</v>
       </c>
@@ -3387,7 +3334,7 @@
         <f t="shared" si="2"/>
         <v>5.0876837397543362</v>
       </c>
-      <c r="P14" s="27" t="str">
+      <c r="P14" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(9.42)</v>
       </c>
@@ -3395,7 +3342,7 @@
         <f t="shared" si="3"/>
         <v>6.3876564657809851</v>
       </c>
-      <c r="R14" s="27" t="str">
+      <c r="R14" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(11.83)</v>
       </c>
@@ -3403,7 +3350,7 @@
         <f t="shared" si="4"/>
         <v>8.3929115148211615</v>
       </c>
-      <c r="T14" s="29" t="str">
+      <c r="T14" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(15.54)</v>
       </c>
@@ -3414,7 +3361,7 @@
         <f t="shared" si="5"/>
         <v>1.8323756230773867</v>
       </c>
-      <c r="X14" s="27" t="str">
+      <c r="X14" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.39)</v>
       </c>
@@ -3422,7 +3369,7 @@
         <f t="shared" si="6"/>
         <v>2.3740942521346331</v>
       </c>
-      <c r="Z14" s="27" t="str">
+      <c r="Z14" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.40)</v>
       </c>
@@ -3430,7 +3377,7 @@
         <f t="shared" si="7"/>
         <v>3.3921443612407991</v>
       </c>
-      <c r="AB14" s="27" t="str">
+      <c r="AB14" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(6.28)</v>
       </c>
@@ -3438,7 +3385,7 @@
         <f t="shared" si="8"/>
         <v>4.2486250931507454</v>
       </c>
-      <c r="AD14" s="27" t="str">
+      <c r="AD14" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(7.87)</v>
       </c>
@@ -3446,7 +3393,7 @@
         <f t="shared" si="9"/>
         <v>5.5497263371310419</v>
       </c>
-      <c r="AF14" s="27" t="str">
+      <c r="AF14" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(10.28)</v>
       </c>
@@ -3454,7 +3401,7 @@
         <f t="shared" si="10"/>
         <v>4.4432393444101974</v>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(8.23)</v>
       </c>
@@ -3488,7 +3435,7 @@
         <f t="shared" si="0"/>
         <v>2.014417133385054</v>
       </c>
-      <c r="L15" s="27" t="str">
+      <c r="L15" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.73)</v>
       </c>
@@ -3496,7 +3443,7 @@
         <f t="shared" si="1"/>
         <v>3.248089275974551</v>
       </c>
-      <c r="N15" s="27" t="str">
+      <c r="N15" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(6.02)</v>
       </c>
@@ -3504,7 +3451,7 @@
         <f t="shared" si="2"/>
         <v>5.2165295987137688</v>
       </c>
-      <c r="P15" s="27" t="str">
+      <c r="P15" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(9.66)</v>
       </c>
@@ -3512,7 +3459,7 @@
         <f t="shared" si="3"/>
         <v>6.5507616672944504</v>
       </c>
-      <c r="R15" s="27" t="str">
+      <c r="R15" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(12.13)</v>
       </c>
@@ -3520,7 +3467,7 @@
         <f t="shared" si="4"/>
         <v>8.6093457112687961</v>
       </c>
-      <c r="T15" s="29" t="str">
+      <c r="T15" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(15.94)</v>
       </c>
@@ -3531,7 +3478,7 @@
         <f t="shared" si="5"/>
         <v>1.852556469861439</v>
       </c>
-      <c r="X15" s="27" t="str">
+      <c r="X15" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.43)</v>
       </c>
@@ -3539,7 +3486,7 @@
         <f t="shared" si="6"/>
         <v>2.4010869304830189</v>
       </c>
-      <c r="Z15" s="27" t="str">
+      <c r="Z15" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.45)</v>
       </c>
@@ -3547,7 +3494,7 @@
         <f t="shared" si="7"/>
         <v>3.47337071545298</v>
       </c>
-      <c r="AB15" s="27" t="str">
+      <c r="AB15" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(6.43)</v>
       </c>
@@ -3555,7 +3502,7 @@
         <f t="shared" si="8"/>
         <v>4.3514490486816193</v>
       </c>
-      <c r="AD15" s="27" t="str">
+      <c r="AD15" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(8.06)</v>
       </c>
@@ -3563,7 +3510,7 @@
         <f t="shared" si="9"/>
         <v>5.6861696877071717</v>
       </c>
-      <c r="AF15" s="27" t="str">
+      <c r="AF15" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(10.53)</v>
       </c>
@@ -3571,7 +3518,7 @@
         <f t="shared" si="10"/>
         <v>4.5600055170082099</v>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(8.45)</v>
       </c>
@@ -3605,7 +3552,7 @@
         <f t="shared" si="0"/>
         <v>2.0603447283829532</v>
       </c>
-      <c r="L16" s="27" t="str">
+      <c r="L16" s="25" t="str">
         <f t="shared" si="11"/>
         <v>(3.82)</v>
       </c>
@@ -3613,7 +3560,7 @@
         <f t="shared" si="1"/>
         <v>3.3272189539530848</v>
       </c>
-      <c r="N16" s="27" t="str">
+      <c r="N16" s="25" t="str">
         <f t="shared" si="12"/>
         <v>(6.16)</v>
       </c>
@@ -3621,7 +3568,7 @@
         <f t="shared" si="2"/>
         <v>5.3500759697628615</v>
       </c>
-      <c r="P16" s="27" t="str">
+      <c r="P16" s="25" t="str">
         <f t="shared" si="13"/>
         <v>(9.91)</v>
       </c>
@@ -3629,7 +3576,7 @@
         <f t="shared" si="3"/>
         <v>6.7197188820625318</v>
       </c>
-      <c r="R16" s="27" t="str">
+      <c r="R16" s="25" t="str">
         <f t="shared" si="14"/>
         <v>(12.44)</v>
       </c>
@@ -3637,7 +3584,7 @@
         <f t="shared" si="4"/>
         <v>8.833375315707924</v>
       </c>
-      <c r="T16" s="29" t="str">
+      <c r="T16" s="27" t="str">
         <f t="shared" si="15"/>
         <v>(16.36)</v>
       </c>
@@ -3648,7 +3595,7 @@
         <f t="shared" si="5"/>
         <v>1.8732147814747671</v>
       </c>
-      <c r="X16" s="27" t="str">
+      <c r="X16" s="25" t="str">
         <f t="shared" si="16"/>
         <v>(3.47)</v>
       </c>
@@ -3656,7 +3603,7 @@
         <f t="shared" si="6"/>
         <v>2.4286950079446923</v>
       </c>
-      <c r="Z16" s="27" t="str">
+      <c r="Z16" s="25" t="str">
         <f t="shared" si="17"/>
         <v>(4.50)</v>
       </c>
@@ -3664,7 +3611,7 @@
         <f t="shared" si="7"/>
         <v>3.5575603427036349</v>
       </c>
-      <c r="AB16" s="27" t="str">
+      <c r="AB16" s="25" t="str">
         <f t="shared" si="18"/>
         <v>(6.59)</v>
       </c>
@@ -3672,7 +3619,7 @@
         <f t="shared" si="8"/>
         <v>4.4579622007867004</v>
       </c>
-      <c r="AD16" s="27" t="str">
+      <c r="AD16" s="25" t="str">
         <f t="shared" si="19"/>
         <v>(8.26)</v>
       </c>
@@ -3680,7 +3627,7 @@
         <f t="shared" si="9"/>
         <v>5.8274012969427993</v>
       </c>
-      <c r="AF16" s="27" t="str">
+      <c r="AF16" s="25" t="str">
         <f t="shared" si="20"/>
         <v>(10.79)</v>
       </c>
@@ -3688,7 +3635,7 @@
         <f t="shared" si="10"/>
         <v>4.6809219561540134</v>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="27" t="str">
         <f t="shared" si="21"/>
         <v>(8.67)</v>
       </c>
@@ -3722,7 +3669,7 @@
         <f t="shared" si="0"/>
         <v>2.1079621062237868</v>
       </c>
-      <c r="L17" s="28" t="str">
+      <c r="L17" s="26" t="str">
         <f t="shared" si="11"/>
         <v>(3.90)</v>
       </c>
@@ -3730,7 +3677,7 @@
         <f t="shared" si="1"/>
         <v>3.4092642793136254</v>
       </c>
-      <c r="N17" s="28" t="str">
+      <c r="N17" s="26" t="str">
         <f t="shared" si="12"/>
         <v>(6.31)</v>
       </c>
@@ -3738,7 +3685,7 @@
         <f t="shared" si="2"/>
         <v>5.4884841276169709</v>
       </c>
-      <c r="P17" s="28" t="str">
+      <c r="P17" s="26" t="str">
         <f t="shared" si="13"/>
         <v>(10.16)</v>
       </c>
@@ -3746,7 +3693,7 @@
         <f t="shared" si="3"/>
         <v>6.8947225610974874</v>
       </c>
-      <c r="R17" s="28" t="str">
+      <c r="R17" s="26" t="str">
         <f t="shared" si="14"/>
         <v>(12.77)</v>
       </c>
@@ -3754,7 +3701,7 @@
         <f t="shared" si="4"/>
         <v>9.0652949669521341</v>
       </c>
-      <c r="T17" s="30" t="str">
+      <c r="T17" s="28" t="str">
         <f t="shared" si="15"/>
         <v>(16.79)</v>
       </c>
@@ -3765,7 +3712,7 @@
         <f t="shared" si="5"/>
         <v>1.8943505579173707</v>
       </c>
-      <c r="X17" s="28" t="str">
+      <c r="X17" s="26" t="str">
         <f t="shared" si="16"/>
         <v>(3.51)</v>
       </c>
@@ -3773,7 +3720,7 @@
         <f t="shared" si="6"/>
         <v>2.4569290948491949</v>
       </c>
-      <c r="Z17" s="28" t="str">
+      <c r="Z17" s="26" t="str">
         <f t="shared" si="17"/>
         <v>(4.55)</v>
       </c>
@@ -3781,7 +3728,7 @@
         <f t="shared" si="7"/>
         <v>3.6448149129824752</v>
       </c>
-      <c r="AB17" s="28" t="str">
+      <c r="AB17" s="26" t="str">
         <f t="shared" si="18"/>
         <v>(6.75)</v>
       </c>
@@ -3789,7 +3736,7 @@
         <f t="shared" si="8"/>
         <v>4.5682871342888607</v>
       </c>
-      <c r="AD17" s="28" t="str">
+      <c r="AD17" s="26" t="str">
         <f t="shared" si="19"/>
         <v>(8.46)</v>
       </c>
@@ -3797,7 +3744,7 @@
         <f t="shared" si="9"/>
         <v>5.9736069095473843</v>
       </c>
-      <c r="AF17" s="28" t="str">
+      <c r="AF17" s="26" t="str">
         <f t="shared" si="20"/>
         <v>(11.06)</v>
       </c>
@@ -3805,7 +3752,7 @@
         <f t="shared" si="10"/>
         <v>4.8061543851922934</v>
       </c>
-      <c r="AH17" s="30" t="str">
+      <c r="AH17" s="28" t="str">
         <f t="shared" si="21"/>
         <v>(8.90)</v>
       </c>
@@ -3841,15 +3788,15 @@
       <c r="AH18" s="6"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -3899,53 +3846,53 @@
       <c r="J21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="80" t="s">
+      <c r="K21" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="80" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="80" t="s">
+      <c r="N21" s="75"/>
+      <c r="O21" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="80" t="s">
+      <c r="P21" s="75"/>
+      <c r="Q21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="81"/>
-      <c r="S21" s="82" t="s">
+      <c r="R21" s="75"/>
+      <c r="S21" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="83"/>
+      <c r="T21" s="73"/>
       <c r="V21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="80" t="s">
+      <c r="W21" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="80" t="s">
+      <c r="X21" s="75"/>
+      <c r="Y21" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="80" t="s">
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="80" t="s">
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="80" t="s">
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="82" t="s">
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AH21" s="83"/>
+      <c r="AH21" s="73"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
@@ -3972,64 +3919,64 @@
       <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="70">
         <f t="shared" ref="K22:K34" si="22">C$40+2*MAX((((((C22+$F$45)/3600*1000)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1000),((C22+$F$45)/60/PI()))</f>
         <v>3.0908925153768592</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="87">
+      <c r="L22" s="71"/>
+      <c r="M22" s="70">
         <f t="shared" ref="M22:M34" si="23">D$40+2*MAX((((((D22+$F$45)/3600*1000)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1000),((D22+$F$45)/60/PI()))</f>
         <v>4.7924826433317751</v>
       </c>
-      <c r="N22" s="88"/>
-      <c r="O22" s="87">
+      <c r="N22" s="71"/>
+      <c r="O22" s="70">
         <f t="shared" ref="O22:O34" si="24">E$40+2*MAX((((((E22+$F$45)/3600*1000)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1000),((E22+$F$45)/60/PI()))</f>
         <v>7.6606646996154772</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="87">
+      <c r="P22" s="71"/>
+      <c r="Q22" s="70">
         <f t="shared" ref="Q22:Q34" si="25">F$40+2*MAX((((((F22+$F$45)/3600*1000)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1000),((F22+$F$45)/60/PI()))</f>
         <v>9.5314905923250954</v>
       </c>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89">
+      <c r="R22" s="71"/>
+      <c r="S22" s="64">
         <f t="shared" ref="S22:S34" si="26">G$40+2*MAX((((((G22+$F$45)/3600*1000)^2)/(($C$42/COS(RADIANS($F$43))*SIN(RADIANS($F$43)))))/1000),((G22+$F$45)/60/PI()))</f>
         <v>12.496867137477928</v>
       </c>
-      <c r="T22" s="90"/>
+      <c r="T22" s="65"/>
       <c r="V22" s="7">
         <v>0</v>
       </c>
-      <c r="W22" s="87">
+      <c r="W22" s="70">
         <f t="shared" ref="W22:W34" si="27">C$40+2*MAX((((((C22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((C22+$H$45)/60/PI()))</f>
         <v>3.0908925153768592</v>
       </c>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="87">
+      <c r="X22" s="71"/>
+      <c r="Y22" s="70">
         <f t="shared" ref="Y22:Y34" si="28">D$40+2*MAX((((((D22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((D22+$H$45)/60/PI()))</f>
         <v>3.9884054401532811</v>
       </c>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="87">
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="70">
         <f t="shared" ref="AA22:AA34" si="29">E$40+2*MAX((((((E22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((E22+$H$45)/60/PI()))</f>
         <v>5.1731115705978841</v>
       </c>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="87">
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="70">
         <f t="shared" ref="AC22:AC34" si="30">F$40+2*MAX((((((F22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((F22+$H$45)/60/PI()))</f>
         <v>6.4190334712435293</v>
       </c>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="87">
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="70">
         <f t="shared" ref="AE22:AE34" si="31">G$40+2*MAX((((((G22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((G22+$H$45)/60/PI()))</f>
         <v>8.3586723044150499</v>
       </c>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89">
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="64">
         <f t="shared" ref="AG22:AG34" si="32">H$40+2*MAX((((((H22+$H$45)/3600*1000)^2)/(($C$42/COS(RADIANS($H$43))*SIN(RADIANS($H$43)))))/1000),((H22+$H$45)/60/PI()))</f>
         <v>6.5126253717769398</v>
       </c>
-      <c r="AH22" s="90"/>
+      <c r="AH22" s="65"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
@@ -4056,64 +4003,64 @@
       <c r="J23" s="7">
         <v>300</v>
       </c>
-      <c r="K23" s="87">
+      <c r="K23" s="70">
         <f t="shared" si="22"/>
         <v>3.1209621892916881</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="87">
+      <c r="L23" s="71"/>
+      <c r="M23" s="70">
         <f t="shared" si="23"/>
         <v>4.8938667132793414</v>
       </c>
-      <c r="N23" s="88"/>
-      <c r="O23" s="87">
+      <c r="N23" s="71"/>
+      <c r="O23" s="70">
         <f t="shared" si="24"/>
         <v>7.8339228626148545</v>
       </c>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="87">
+      <c r="P23" s="71"/>
+      <c r="Q23" s="70">
         <f t="shared" si="25"/>
         <v>9.7498451768126628</v>
       </c>
-      <c r="R23" s="88"/>
-      <c r="S23" s="89">
+      <c r="R23" s="71"/>
+      <c r="S23" s="64">
         <f t="shared" si="26"/>
         <v>12.788378089152806</v>
       </c>
-      <c r="T23" s="90"/>
+      <c r="T23" s="65"/>
       <c r="V23" s="7">
         <v>300</v>
       </c>
-      <c r="W23" s="87">
+      <c r="W23" s="70">
         <f t="shared" si="27"/>
         <v>3.1209621892916881</v>
       </c>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="87">
+      <c r="X23" s="71"/>
+      <c r="Y23" s="70">
         <f t="shared" si="28"/>
         <v>4.028788354380465</v>
       </c>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="87">
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="70">
         <f t="shared" si="29"/>
         <v>5.2823361047163635</v>
       </c>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="87">
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="70">
         <f t="shared" si="30"/>
         <v>6.5566874631271581</v>
       </c>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="87">
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="70">
         <f t="shared" si="31"/>
         <v>8.542445162997403</v>
       </c>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="89">
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="64">
         <f t="shared" si="32"/>
         <v>6.6673089952292433</v>
       </c>
-      <c r="AH23" s="90"/>
+      <c r="AH23" s="65"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
@@ -4140,64 +4087,64 @@
       <c r="J24" s="7">
         <v>600</v>
       </c>
-      <c r="K24" s="87">
+      <c r="K24" s="70">
         <f t="shared" si="22"/>
         <v>3.1516790933084238</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="87">
+      <c r="L24" s="71"/>
+      <c r="M24" s="70">
         <f t="shared" si="23"/>
         <v>4.9987013096006798</v>
       </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="87">
+      <c r="N24" s="71"/>
+      <c r="O24" s="70">
         <f t="shared" si="24"/>
         <v>8.0130572017644415</v>
       </c>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="87">
+      <c r="P24" s="71"/>
+      <c r="Q24" s="70">
         <f t="shared" si="25"/>
         <v>9.9754968174207708</v>
       </c>
-      <c r="R24" s="88"/>
-      <c r="S24" s="89">
+      <c r="R24" s="71"/>
+      <c r="S24" s="64">
         <f t="shared" si="26"/>
         <v>13.089549636366465</v>
       </c>
-      <c r="T24" s="90"/>
+      <c r="T24" s="65"/>
       <c r="V24" s="7">
         <v>600</v>
       </c>
-      <c r="W24" s="87">
+      <c r="W24" s="70">
         <f t="shared" si="27"/>
         <v>3.1516790933084238</v>
       </c>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="87">
+      <c r="X24" s="71"/>
+      <c r="Y24" s="70">
         <f t="shared" si="28"/>
         <v>4.0700307053003444</v>
       </c>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="87">
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="70">
         <f t="shared" si="29"/>
         <v>5.3952650680593806</v>
       </c>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="87">
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="70">
         <f t="shared" si="30"/>
         <v>6.6989416281939986</v>
       </c>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="87">
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="70">
         <f t="shared" si="31"/>
         <v>8.7323082053192334</v>
       </c>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89">
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="64">
         <f t="shared" si="32"/>
         <v>6.8271914682392847</v>
       </c>
-      <c r="AH24" s="90"/>
+      <c r="AH24" s="65"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
@@ -4224,64 +4171,64 @@
       <c r="J25" s="7">
         <v>900</v>
       </c>
-      <c r="K25" s="87">
+      <c r="K25" s="70">
         <f t="shared" si="22"/>
         <v>3.2024004074471231</v>
       </c>
-      <c r="L25" s="88"/>
-      <c r="M25" s="87">
+      <c r="L25" s="71"/>
+      <c r="M25" s="70">
         <f t="shared" si="23"/>
         <v>5.1071230709678206</v>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="87">
+      <c r="N25" s="71"/>
+      <c r="O25" s="70">
         <f t="shared" si="24"/>
         <v>8.1982789290148208</v>
       </c>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="87">
+      <c r="P25" s="71"/>
+      <c r="Q25" s="70">
         <f t="shared" si="25"/>
         <v>10.208816881358215</v>
       </c>
-      <c r="R25" s="88"/>
-      <c r="S25" s="89">
+      <c r="R25" s="71"/>
+      <c r="S25" s="64">
         <f t="shared" si="26"/>
         <v>13.400747144922546</v>
       </c>
-      <c r="T25" s="90"/>
+      <c r="T25" s="65"/>
       <c r="V25" s="7">
         <v>900</v>
       </c>
-      <c r="W25" s="87">
+      <c r="W25" s="70">
         <f t="shared" si="27"/>
         <v>3.183064448086145</v>
       </c>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="87">
+      <c r="X25" s="71"/>
+      <c r="Y25" s="70">
         <f t="shared" si="28"/>
         <v>4.112153713571999</v>
       </c>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="87">
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="70">
         <f t="shared" si="29"/>
         <v>5.5120316117957087</v>
       </c>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="87">
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="70">
         <f t="shared" si="30"/>
         <v>6.8460300818800315</v>
       </c>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="87">
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="70">
         <f t="shared" si="31"/>
         <v>8.928491763441059</v>
       </c>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="89">
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="64">
         <f t="shared" si="32"/>
         <v>6.9924231010204885</v>
       </c>
-      <c r="AH25" s="90"/>
+      <c r="AH25" s="65"/>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
@@ -4308,64 +4255,64 @@
       <c r="J26" s="7">
         <v>1200</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="70">
         <f t="shared" si="22"/>
         <v>3.267396811500797</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="87">
+      <c r="L26" s="71"/>
+      <c r="M26" s="70">
         <f t="shared" si="23"/>
         <v>5.2193009736772913</v>
       </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="87">
+      <c r="N26" s="71"/>
+      <c r="O26" s="70">
         <f t="shared" si="24"/>
         <v>8.3898417450700613</v>
       </c>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="87">
+      <c r="P26" s="71"/>
+      <c r="Q26" s="70">
         <f t="shared" si="25"/>
         <v>10.450029845208043</v>
       </c>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89">
+      <c r="R26" s="71"/>
+      <c r="S26" s="64">
         <f t="shared" si="26"/>
         <v>13.722347674648505</v>
       </c>
-      <c r="T26" s="90"/>
+      <c r="T26" s="65"/>
       <c r="V26" s="7">
         <v>1200</v>
       </c>
-      <c r="W26" s="87">
+      <c r="W26" s="70">
         <f t="shared" si="27"/>
         <v>3.2151288639543925</v>
       </c>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="87">
+      <c r="X26" s="71"/>
+      <c r="Y26" s="70">
         <f t="shared" si="28"/>
         <v>4.155189210184048</v>
       </c>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="87">
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="70">
         <f t="shared" si="29"/>
         <v>5.6327956726390225</v>
       </c>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="87">
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="70">
         <f t="shared" si="30"/>
         <v>6.998094337576485</v>
       </c>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="87">
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="70">
         <f t="shared" si="31"/>
         <v>9.1312335415107047</v>
       </c>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="89">
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="64">
         <f t="shared" si="32"/>
         <v>7.1632385677332167</v>
       </c>
-      <c r="AH26" s="90"/>
+      <c r="AH26" s="65"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
@@ -4392,64 +4339,64 @@
       <c r="J27" s="7">
         <v>1500</v>
       </c>
-      <c r="K27" s="87">
+      <c r="K27" s="70">
         <f t="shared" si="22"/>
         <v>3.3346503819167768</v>
       </c>
-      <c r="L27" s="88"/>
-      <c r="M27" s="87">
+      <c r="L27" s="71"/>
+      <c r="M27" s="70">
         <f t="shared" si="23"/>
         <v>5.3353536955506593</v>
       </c>
-      <c r="N27" s="88"/>
-      <c r="O27" s="87">
+      <c r="N27" s="71"/>
+      <c r="O27" s="70">
         <f t="shared" si="24"/>
         <v>8.5879716112565596</v>
       </c>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="87">
+      <c r="P27" s="71"/>
+      <c r="Q27" s="70">
         <f t="shared" si="25"/>
         <v>10.699488222865579</v>
       </c>
-      <c r="R27" s="88"/>
-      <c r="S27" s="89">
+      <c r="R27" s="71"/>
+      <c r="S27" s="64">
         <f t="shared" si="26"/>
         <v>14.054693364784185</v>
       </c>
-      <c r="T27" s="90"/>
+      <c r="T27" s="65"/>
       <c r="V27" s="7">
         <v>1500</v>
       </c>
-      <c r="W27" s="87">
+      <c r="W27" s="70">
         <f t="shared" si="27"/>
         <v>3.2479041719017836</v>
       </c>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="87">
+      <c r="X27" s="71"/>
+      <c r="Y27" s="70">
         <f t="shared" si="28"/>
         <v>4.1991478054660298</v>
       </c>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="87">
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="70">
         <f t="shared" si="29"/>
         <v>5.7576996999849346</v>
       </c>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="87">
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="70">
         <f t="shared" si="30"/>
         <v>7.1553566253088876</v>
       </c>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="87">
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="70">
         <f t="shared" si="31"/>
         <v>9.3407492292159056</v>
       </c>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="89">
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="64">
         <f t="shared" si="32"/>
         <v>7.3398535682862676</v>
       </c>
-      <c r="AH27" s="90"/>
+      <c r="AH27" s="65"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
@@ -4476,64 +4423,64 @@
       <c r="J28" s="7">
         <v>1800</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="70">
         <f t="shared" si="22"/>
         <v>3.4042369857898835</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="87">
+      <c r="L28" s="71"/>
+      <c r="M28" s="70">
         <f t="shared" si="23"/>
         <v>5.4554604095834502</v>
       </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="87">
+      <c r="N28" s="71"/>
+      <c r="O28" s="70">
         <f t="shared" si="24"/>
         <v>8.7930121230222031</v>
       </c>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="87">
+      <c r="P28" s="71"/>
+      <c r="Q28" s="70">
         <f t="shared" si="25"/>
         <v>10.957515759329558</v>
       </c>
-      <c r="R28" s="88"/>
-      <c r="S28" s="89">
+      <c r="R28" s="71"/>
+      <c r="S28" s="64">
         <f t="shared" si="26"/>
         <v>14.398279029342955</v>
       </c>
-      <c r="T28" s="90"/>
+      <c r="T28" s="65"/>
       <c r="V28" s="7">
         <v>1800</v>
       </c>
-      <c r="W28" s="87">
+      <c r="W28" s="70">
         <f t="shared" si="27"/>
         <v>3.2814009822578578</v>
       </c>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="87">
+      <c r="X28" s="71"/>
+      <c r="Y28" s="70">
         <f t="shared" si="28"/>
         <v>4.244061330406562</v>
       </c>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="87">
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="70">
         <f t="shared" si="29"/>
         <v>5.8869603015364893</v>
       </c>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="87">
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="70">
         <f t="shared" si="30"/>
         <v>7.3180210387606133</v>
       </c>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="87">
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="70">
         <f t="shared" si="31"/>
         <v>9.5573507647023135</v>
       </c>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89">
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="64">
         <f t="shared" si="32"/>
         <v>7.5224908441673399</v>
       </c>
-      <c r="AH28" s="90"/>
+      <c r="AH28" s="65"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
@@ -4560,64 +4507,64 @@
       <c r="J29" s="7">
         <v>2100</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K29" s="70">
         <f t="shared" si="22"/>
         <v>3.4762572275065016</v>
       </c>
-      <c r="L29" s="88"/>
-      <c r="M29" s="87">
+      <c r="L29" s="71"/>
+      <c r="M29" s="70">
         <f t="shared" si="23"/>
         <v>5.5798067364510873</v>
       </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="87">
+      <c r="N29" s="71"/>
+      <c r="O29" s="70">
         <f t="shared" si="24"/>
         <v>9.0051705260410948</v>
       </c>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="87">
+      <c r="P29" s="71"/>
+      <c r="Q29" s="70">
         <f t="shared" si="25"/>
         <v>11.224446915121316</v>
       </c>
-      <c r="R29" s="88"/>
-      <c r="S29" s="89">
+      <c r="R29" s="71"/>
+      <c r="S29" s="64">
         <f t="shared" si="26"/>
         <v>14.75352083551638</v>
       </c>
-      <c r="T29" s="90"/>
+      <c r="T29" s="65"/>
       <c r="V29" s="7">
         <v>2100</v>
       </c>
-      <c r="W29" s="87">
+      <c r="W29" s="70">
         <f t="shared" si="27"/>
         <v>3.3156405156816939</v>
       </c>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="87">
+      <c r="X29" s="71"/>
+      <c r="Y29" s="70">
         <f t="shared" si="28"/>
         <v>4.2899616159942653</v>
       </c>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="87">
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="70">
         <f t="shared" si="29"/>
         <v>6.020708128062517</v>
       </c>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="87">
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="70">
         <f t="shared" si="30"/>
         <v>7.4862984268405421</v>
       </c>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="87">
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="70">
         <f t="shared" si="31"/>
         <v>9.7813005059842784</v>
       </c>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="89">
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="64">
         <f t="shared" si="32"/>
         <v>7.7114083178567814</v>
       </c>
-      <c r="AH29" s="90"/>
+      <c r="AH29" s="65"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
@@ -4644,64 +4591,64 @@
       <c r="J30" s="7">
         <v>2400</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K30" s="70">
         <f t="shared" si="22"/>
         <v>3.5508379338770482</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="87">
+      <c r="L30" s="71"/>
+      <c r="M30" s="70">
         <f t="shared" si="23"/>
         <v>5.7085849818706693</v>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="87">
+      <c r="N30" s="71"/>
+      <c r="O30" s="70">
         <f t="shared" si="24"/>
         <v>9.2248111336832643</v>
       </c>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="87">
+      <c r="P30" s="71"/>
+      <c r="Q30" s="70">
         <f t="shared" si="25"/>
         <v>11.500627202222985</v>
       </c>
-      <c r="R30" s="88"/>
-      <c r="S30" s="89">
+      <c r="R30" s="71"/>
+      <c r="S30" s="64">
         <f t="shared" si="26"/>
         <v>15.120848173752327</v>
       </c>
-      <c r="T30" s="90"/>
+      <c r="T30" s="65"/>
       <c r="V30" s="7">
         <v>2400</v>
       </c>
-      <c r="W30" s="87">
+      <c r="W30" s="70">
         <f t="shared" si="27"/>
         <v>3.3506546031619115</v>
       </c>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="87">
+      <c r="X30" s="71"/>
+      <c r="Y30" s="70">
         <f t="shared" si="28"/>
         <v>4.3368804932177563</v>
       </c>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="87">
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="70">
         <f t="shared" si="29"/>
         <v>6.1591728481536681</v>
       </c>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="87">
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="70">
         <f t="shared" si="30"/>
         <v>7.6604066054635371</v>
       </c>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="87">
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="70">
         <f t="shared" si="31"/>
         <v>10.012869147214456</v>
       </c>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89">
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="64">
         <f t="shared" si="32"/>
         <v>7.9068163040151127</v>
       </c>
-      <c r="AH30" s="90"/>
+      <c r="AH30" s="65"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
@@ -4728,64 +4675,64 @@
       <c r="J31" s="7">
         <v>2700</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K31" s="70">
         <f t="shared" si="22"/>
         <v>3.6280646317994205</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="87">
+      <c r="L31" s="71"/>
+      <c r="M31" s="70">
         <f t="shared" si="23"/>
         <v>5.8419349733335952</v>
       </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="87">
+      <c r="N31" s="71"/>
+      <c r="O31" s="70">
         <f t="shared" si="24"/>
         <v>9.4521586132858992</v>
       </c>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="87">
+      <c r="P31" s="71"/>
+      <c r="Q31" s="70">
         <f t="shared" si="25"/>
         <v>11.786499467290501</v>
       </c>
-      <c r="R31" s="88"/>
-      <c r="S31" s="89">
+      <c r="R31" s="71"/>
+      <c r="S31" s="64">
         <f t="shared" si="26"/>
         <v>15.500704042981445</v>
       </c>
-      <c r="T31" s="90"/>
+      <c r="T31" s="65"/>
       <c r="V31" s="7">
         <v>2700</v>
       </c>
-      <c r="W31" s="87">
+      <c r="W31" s="70">
         <f t="shared" si="27"/>
         <v>3.3864538550280487</v>
       </c>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="87">
+      <c r="X31" s="71"/>
+      <c r="Y31" s="70">
         <f t="shared" si="28"/>
         <v>4.3848285724065743</v>
       </c>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="87">
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="70">
         <f t="shared" si="29"/>
         <v>6.3024960954554254</v>
       </c>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="87">
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="70">
         <f t="shared" si="30"/>
         <v>7.8406247517768275</v>
       </c>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="87">
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="70">
         <f t="shared" si="31"/>
         <v>10.252335961536325</v>
       </c>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89">
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="64">
         <f t="shared" si="32"/>
         <v>8.1090173888664943</v>
       </c>
-      <c r="AH31" s="90"/>
+      <c r="AH31" s="65"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
@@ -4812,64 +4759,64 @@
       <c r="J32" s="7">
         <v>3000</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K32" s="70">
         <f t="shared" si="22"/>
         <v>3.7080720889381609</v>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="87">
+      <c r="L32" s="71"/>
+      <c r="M32" s="70">
         <f t="shared" si="23"/>
         <v>5.9800607323713715</v>
       </c>
-      <c r="N32" s="88"/>
-      <c r="O32" s="87">
+      <c r="N32" s="71"/>
+      <c r="O32" s="70">
         <f t="shared" si="24"/>
         <v>9.6875993298636232</v>
       </c>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="87">
+      <c r="P32" s="71"/>
+      <c r="Q32" s="70">
         <f t="shared" si="25"/>
         <v>12.082348789477351</v>
       </c>
-      <c r="R32" s="88"/>
-      <c r="S32" s="89">
+      <c r="R32" s="71"/>
+      <c r="S32" s="64">
         <f t="shared" si="26"/>
         <v>15.893595681355402</v>
       </c>
-      <c r="T32" s="90"/>
+      <c r="T32" s="65"/>
       <c r="V32" s="7">
         <v>3000</v>
       </c>
-      <c r="W32" s="87">
+      <c r="W32" s="70">
         <f t="shared" si="27"/>
         <v>3.4230701022687233</v>
       </c>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="87">
+      <c r="X32" s="71"/>
+      <c r="Y32" s="70">
         <f t="shared" si="28"/>
         <v>4.4338376845493386</v>
       </c>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="87">
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="70">
         <f t="shared" si="29"/>
         <v>6.4509214402446071</v>
       </c>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="87">
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="70">
         <f t="shared" si="30"/>
         <v>8.0271325839373393</v>
       </c>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="87">
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="70">
         <f t="shared" si="31"/>
         <v>10.500020719457922</v>
       </c>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="89">
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="64">
         <f t="shared" si="32"/>
         <v>8.3182380055025291</v>
       </c>
-      <c r="AH32" s="90"/>
+      <c r="AH32" s="65"/>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
@@ -4896,64 +4843,64 @@
       <c r="J33" s="7">
         <v>3300</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K33" s="70">
         <f t="shared" si="22"/>
         <v>3.7909765144225922</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="87">
+      <c r="L33" s="71"/>
+      <c r="M33" s="70">
         <f t="shared" si="23"/>
         <v>6.1232346402765296</v>
       </c>
-      <c r="N33" s="88"/>
-      <c r="O33" s="87">
+      <c r="N33" s="71"/>
+      <c r="O33" s="70">
         <f t="shared" si="24"/>
         <v>9.9314554789485996</v>
       </c>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="87">
+      <c r="P33" s="71"/>
+      <c r="Q33" s="70">
         <f t="shared" si="25"/>
         <v>12.388644332505567</v>
       </c>
-      <c r="R33" s="88"/>
-      <c r="S33" s="89">
+      <c r="R33" s="71"/>
+      <c r="S33" s="64">
         <f t="shared" si="26"/>
         <v>16.300098440561847</v>
       </c>
-      <c r="T33" s="90"/>
+      <c r="T33" s="65"/>
       <c r="V33" s="7">
         <v>3300</v>
       </c>
-      <c r="W33" s="87">
+      <c r="W33" s="70">
         <f t="shared" si="27"/>
         <v>3.4605245655430164</v>
       </c>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="87">
+      <c r="X33" s="71"/>
+      <c r="Y33" s="70">
         <f t="shared" si="28"/>
         <v>4.4839608812937461</v>
       </c>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="87">
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="70">
         <f t="shared" si="29"/>
         <v>6.6046519993977046</v>
       </c>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="87">
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="70">
         <f t="shared" si="30"/>
         <v>8.2202258697638975</v>
       </c>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="87">
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="70">
         <f t="shared" si="31"/>
         <v>10.756286131277854</v>
       </c>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="89">
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="64">
         <f t="shared" si="32"/>
         <v>8.534799706794443</v>
       </c>
-      <c r="AH33" s="90"/>
+      <c r="AH33" s="65"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
@@ -4980,64 +4927,64 @@
       <c r="J34" s="9">
         <v>3600</v>
       </c>
-      <c r="K34" s="85">
+      <c r="K34" s="68">
         <f t="shared" si="22"/>
         <v>3.8768742008261294</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="85">
+      <c r="L34" s="69"/>
+      <c r="M34" s="68">
         <f t="shared" si="23"/>
         <v>6.2715853704822768</v>
       </c>
-      <c r="N34" s="86"/>
-      <c r="O34" s="85">
+      <c r="N34" s="69"/>
+      <c r="O34" s="68">
         <f t="shared" si="24"/>
         <v>10.184060165635564</v>
       </c>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="85">
+      <c r="P34" s="69"/>
+      <c r="Q34" s="68">
         <f t="shared" si="25"/>
         <v>12.70582788579836</v>
       </c>
-      <c r="R34" s="86"/>
-      <c r="S34" s="91">
+      <c r="R34" s="69"/>
+      <c r="S34" s="66">
         <f t="shared" si="26"/>
         <v>16.720601672742102</v>
       </c>
-      <c r="T34" s="92"/>
+      <c r="T34" s="67"/>
       <c r="V34" s="9">
         <v>3600</v>
       </c>
-      <c r="W34" s="85">
+      <c r="W34" s="68">
         <f t="shared" si="27"/>
         <v>3.4988278551804659</v>
       </c>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="85">
+      <c r="X34" s="69"/>
+      <c r="Y34" s="68">
         <f t="shared" si="28"/>
         <v>4.535198162639797</v>
       </c>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="85">
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="68">
         <f t="shared" si="29"/>
         <v>6.7638977673424296</v>
       </c>
-      <c r="AB34" s="86"/>
-      <c r="AC34" s="85">
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="68">
         <f t="shared" si="30"/>
         <v>8.4201831199084332</v>
       </c>
-      <c r="AD34" s="86"/>
-      <c r="AE34" s="85">
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="68">
         <f t="shared" si="31"/>
         <v>11.021377650402226</v>
       </c>
-      <c r="AF34" s="86"/>
-      <c r="AG34" s="91">
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="66">
         <f t="shared" si="32"/>
         <v>8.7589461107446276</v>
       </c>
-      <c r="AH34" s="92"/>
+      <c r="AH34" s="67"/>
     </row>
     <row r="37" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:34" x14ac:dyDescent="0.25">
@@ -5117,22 +5064,22 @@
       <c r="C42" s="20">
         <v>9.8066499999999994</v>
       </c>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84" t="s">
+      <c r="F42" s="73"/>
+      <c r="G42" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="83"/>
+      <c r="H42" s="73"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="77"/>
       <c r="E43" s="7" t="s">
         <v>15</v>
       </c>
@@ -5147,8 +5094,8 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="79"/>
       <c r="E44" s="7" t="s">
         <v>6</v>
       </c>
@@ -5177,13 +5124,162 @@
       </c>
     </row>
     <row r="46" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="127"/>
+      <c r="B46" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="V1:AH1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC30:AD30"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="AG31:AH31"/>
     <mergeCell ref="AG32:AH32"/>
@@ -5208,155 +5304,6 @@
     <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AC32:AD32"/>
     <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="J1:T1"/>
-    <mergeCell ref="V1:AH1"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5367,7 +5314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451F7B74-55AC-4815-B191-B54406F65D6D}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -5381,534 +5328,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="A1" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="104"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="48">
         <v>0</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>1.6697404918965486</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>2.5936098986816818</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="32">
         <v>4.1098560163017623</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <v>5.1479809414279831</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="58">
         <v>6.7425749618981525</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
+      <c r="A5" s="49">
         <v>1000</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="40">
         <v>1.6862607749894873</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="42">
         <v>2.6493310247145452</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="42">
         <v>4.204210359082996</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="42">
         <v>5.2677229689108112</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="60">
         <v>6.9023430141448596</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="49">
         <v>2000</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="40">
         <v>1.7031418092867678</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="42">
         <v>2.7069740595718059</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="42">
         <v>4.3018056082255942</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="42">
         <v>5.3915669349239019</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="60">
         <v>7.0675371744546114</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="49">
         <v>3000</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="40">
         <v>1.7349589295134094</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="42">
         <v>2.7666402024413244</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="42">
         <v>4.4027555589275984</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="42">
         <v>5.519691597133102</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="60">
         <v>7.2382883447987654</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="49">
         <v>4000</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="40">
         <v>1.7708321928329227</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="42">
         <v>2.8284065895826398</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="42">
         <v>4.5072491518221538</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="42">
         <v>5.6522015371180183</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="60">
         <v>7.4148691837293397</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="A9" s="49">
         <v>5000</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="40">
         <v>1.8079394000933207</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="42">
         <v>2.89232462322911</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="42">
         <v>4.6153738406566696</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="42">
         <v>5.7893257980168631</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="60">
         <v>7.5974684877502918</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
+      <c r="A10" s="49">
         <v>6000</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="40">
         <v>1.8463767005960974</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="42">
         <v>2.9585326907014347</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="42">
         <v>4.7273293137777888</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="42">
         <v>5.9312195735744355</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="60">
         <v>7.7862804567688144</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="49">
         <v>7000</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="40">
         <v>1.8861766588898334</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="42">
         <v>3.0270878325667807</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="42">
         <v>4.8432485197112483</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="42">
         <v>6.0781264462009403</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="60">
         <v>7.9816496982268657</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
+      <c r="A12" s="49">
         <v>8000</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="40">
         <v>1.9274182313454871</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="42">
         <v>3.09813652899971</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="42">
         <v>4.9633062922858509</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="42">
         <v>6.230214414558608</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="60">
         <v>8.1837386260208831</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
+      <c r="A13" s="49">
         <v>9000</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="40">
         <v>1.970137228300936</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="42">
         <v>3.1717716952029029</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="42">
         <v>5.0876837397543362</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="42">
         <v>6.3876564657809851</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="60">
         <v>8.3929115148211615</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="49">
         <v>10000</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="40">
         <v>2.014417133385054</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="42">
         <v>3.248089275974551</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="42">
         <v>5.2165295987137688</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="42">
         <v>6.5507616672944504</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="60">
         <v>8.6093457112687961</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+      <c r="A15" s="49">
         <v>11000</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="40">
         <v>2.0603447283829532</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="42">
         <v>3.3272189539530848</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="42">
         <v>5.3500759697628615</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="42">
         <v>6.7197188820625318</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="60">
         <v>8.833375315707924</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64">
+      <c r="A16" s="50">
         <v>12000</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="51">
         <v>2.1079621062237868</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="55">
         <v>3.4092642793136254</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="55">
         <v>5.4884841276169709</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="55">
         <v>6.8947225610974874</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="52">
         <v>9.0652949669521341</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="131"/>
+      <c r="A17" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:K2"/>
@@ -5917,8 +5866,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5940,70 +5887,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="A1" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="A2" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>190</v>
+      <c r="A3" s="100"/>
+      <c r="B3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="43">
         <v>0</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="36">
         <v>3.0908925153768592</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="37">
         <v>4.7924826433317751</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>7.6606646996154772</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>9.5314905923250954</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="38">
         <v>12.496867137477928</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="44">
         <v>300</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>3.1209621892916881</v>
       </c>
       <c r="C5" s="21">
@@ -6015,15 +5962,15 @@
       <c r="E5" s="21">
         <v>9.7498451768126628</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>12.788378089152806</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="44">
         <v>600</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>3.1516790933084238</v>
       </c>
       <c r="C6" s="21">
@@ -6035,15 +5982,15 @@
       <c r="E6" s="21">
         <v>9.9754968174207708</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>13.089549636366465</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="44">
         <v>900</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <v>3.2024004074471231</v>
       </c>
       <c r="C7" s="21">
@@ -6055,15 +6002,15 @@
       <c r="E7" s="21">
         <v>10.208816881358215</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>13.400747144922546</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="44">
         <v>1200</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>3.267396811500797</v>
       </c>
       <c r="C8" s="21">
@@ -6075,15 +6022,15 @@
       <c r="E8" s="21">
         <v>10.450029845208043</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>13.722347674648505</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="44">
         <v>1500</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>3.3346503819167768</v>
       </c>
       <c r="C9" s="21">
@@ -6095,15 +6042,15 @@
       <c r="E9" s="21">
         <v>10.699488222865579</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="23">
         <v>14.054693364784185</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="44">
         <v>1800</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>3.4042369857898835</v>
       </c>
       <c r="C10" s="21">
@@ -6115,15 +6062,15 @@
       <c r="E10" s="21">
         <v>10.957515759329558</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>14.398279029342955</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="44">
         <v>2100</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>3.4762572275065016</v>
       </c>
       <c r="C11" s="21">
@@ -6135,15 +6082,15 @@
       <c r="E11" s="21">
         <v>11.224446915121316</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>14.75352083551638</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="44">
         <v>2400</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>3.5508379338770482</v>
       </c>
       <c r="C12" s="21">
@@ -6155,15 +6102,15 @@
       <c r="E12" s="21">
         <v>11.500627202222985</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>15.120848173752327</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="44">
         <v>2700</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="34">
         <v>3.6280646317994205</v>
       </c>
       <c r="C13" s="21">
@@ -6175,15 +6122,15 @@
       <c r="E13" s="21">
         <v>11.786499467290501</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="23">
         <v>15.500704042981445</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="44">
         <v>3000</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="34">
         <v>3.7080720889381609</v>
       </c>
       <c r="C14" s="21">
@@ -6195,15 +6142,15 @@
       <c r="E14" s="21">
         <v>12.082348789477351</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>15.893595681355402</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="44">
         <v>3300</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="34">
         <v>3.7909765144225922</v>
       </c>
       <c r="C15" s="21">
@@ -6215,40 +6162,40 @@
       <c r="E15" s="21">
         <v>12.388644332505567</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <v>16.300098440561847</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+      <c r="A16" s="45">
         <v>3600</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <v>3.8768742008261294</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>6.2715853704822768</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>10.184060165635564</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>12.70582788579836</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>16.720601672742102</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="128" t="s">
-        <v>200</v>
+      <c r="A17" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="61" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6265,646 +6212,262 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCB496-3D43-415B-9E53-FDB12CBB5B64}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="13" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="119"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="B2" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="100"/>
+      <c r="B3" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="111"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>0</v>
       </c>
-      <c r="B4" s="33">
-        <v>1.6697404918965486</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="34">
-        <v>2.15617930405321</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="129">
+        <v>3.5545903046648473</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="34">
-        <v>2.7757071573982066</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="124"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="131">
+        <v>3.6405141728480626</v>
+      </c>
+      <c r="C5" s="132"/>
+      <c r="D5" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="34">
-        <v>3.4671151240878499</v>
-      </c>
-      <c r="I4" s="46" t="s">
+      <c r="E5" s="126"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="131">
+        <v>3.7293729818840782</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="34">
-        <v>4.5093295211243989</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="34">
-        <v>3.5545903046648473</v>
-      </c>
-      <c r="M4" s="36" t="s">
+      <c r="E6" s="126"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>3000</v>
+      </c>
+      <c r="B7" s="131">
+        <v>3.8212377643275137</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="125" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="47">
-        <v>1.6862607749894873</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="54">
-        <v>2.1783442824611412</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="E7" s="126"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>4000</v>
+      </c>
+      <c r="B8" s="131">
+        <v>3.9162620593904673</v>
+      </c>
+      <c r="C8" s="132"/>
+      <c r="D8" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="54">
-        <v>2.8351895445707673</v>
-      </c>
-      <c r="G5" s="48" t="s">
+      <c r="E8" s="126"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="131">
+        <v>4.014577835686441</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="54">
-        <v>3.5426022869423983</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="E9" s="126"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>6000</v>
+      </c>
+      <c r="B10" s="131">
+        <v>4.116293850681056</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="54">
-        <v>4.6100496879065327</v>
-      </c>
-      <c r="K5" s="49" t="s">
+      <c r="E10" s="126"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <v>7000</v>
+      </c>
+      <c r="B11" s="131">
+        <v>4.2215501793205608</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="54">
-        <v>3.6405141728480626</v>
-      </c>
-      <c r="M5" s="50" t="s">
+      <c r="E11" s="126"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>8000</v>
+      </c>
+      <c r="B12" s="131">
+        <v>4.3304631758739323</v>
+      </c>
+      <c r="C12" s="132"/>
+      <c r="D12" s="125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1.7031418092867678</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="54">
-        <v>2.2009867256983484</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="E12" s="126"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <v>9000</v>
+      </c>
+      <c r="B13" s="131">
+        <v>4.4432393444101974</v>
+      </c>
+      <c r="C13" s="132"/>
+      <c r="D13" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="54">
-        <v>2.8967150475268122</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="54">
-        <v>3.6206753731219696</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="131">
+        <v>4.5600055170082099</v>
+      </c>
+      <c r="C14" s="132"/>
+      <c r="D14" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="54">
-        <v>4.7141905542678524</v>
-      </c>
-      <c r="K6" s="49" t="s">
+      <c r="E14" s="126"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <v>11000</v>
+      </c>
+      <c r="B15" s="131">
+        <v>4.6809219561540134</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="54">
-        <v>3.7293729818840782</v>
-      </c>
-      <c r="M6" s="50" t="s">
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
+        <v>12000</v>
+      </c>
+      <c r="B16" s="133">
+        <v>4.8061543851922934</v>
+      </c>
+      <c r="C16" s="134"/>
+      <c r="D16" s="127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>3000</v>
-      </c>
-      <c r="B7" s="47">
-        <v>1.7203942051179293</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="54">
-        <v>2.2241278544239096</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="54">
-        <v>2.960355404459083</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="54">
-        <v>3.7014470741294292</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="54">
-        <v>4.8218346427665413</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="54">
-        <v>3.8212377643275137</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>4000</v>
-      </c>
-      <c r="B8" s="47">
-        <v>1.7380391831420505</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="54">
-        <v>2.2477782789673655</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="54">
-        <v>3.0262297263651439</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="54">
-        <v>3.7849833197548199</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="54">
-        <v>4.9331538414268179</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="54">
-        <v>3.9162620593904673</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>5000</v>
-      </c>
-      <c r="B9" s="47">
-        <v>1.7560661330295926</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="54">
-        <v>2.2719379993287152</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="54">
-        <v>3.0943931453937639</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="54">
-        <v>3.8714285022139632</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="54">
-        <v>5.0482671703850537</v>
-      </c>
-      <c r="K9" s="49" t="s">
+      <c r="E16" s="128"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="L9" s="54">
-        <v>4.014577835686441</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>6000</v>
-      </c>
-      <c r="B10" s="47">
-        <v>1.7745068857691735</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="54">
-        <v>2.2966388464965775</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="54">
-        <v>3.1649715480616485</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="54">
-        <v>3.9608804579618924</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="54">
-        <v>5.1672970561637399</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="54">
-        <v>4.116293850681056</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>7000</v>
-      </c>
-      <c r="B11" s="47">
-        <v>1.7933614413607935</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="54">
-        <v>2.3218808204709522</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="54">
-        <v>3.2380487471054344</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="54">
-        <v>4.0534927449886826</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="54">
-        <v>5.2904607444420968</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="54">
-        <v>4.2215501793205608</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>8000</v>
-      </c>
-      <c r="B12" s="47">
-        <v>1.8126510204635311</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="54">
-        <v>2.3476957522404573</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="54">
-        <v>3.3137349603824982</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="54">
-        <v>4.1493712721605993</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="54">
-        <v>5.4178606233666127</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="54">
-        <v>4.3304631758739323</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>9000</v>
-      </c>
-      <c r="B13" s="47">
-        <v>1.8323756230773867</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="54">
-        <v>2.3740942521346331</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="54">
-        <v>3.3921443612407991</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="54">
-        <v>4.2486250931507454</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="54">
-        <v>5.5497263371310419</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="54">
-        <v>4.4432393444101974</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>10000</v>
-      </c>
-      <c r="B14" s="47">
-        <v>1.852556469861439</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="54">
-        <v>2.4010869304830189</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="54">
-        <v>3.47337071545298</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="54">
-        <v>4.3514490486816193</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="54">
-        <v>5.6861696877071717</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="54">
-        <v>4.5600055170082099</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>11000</v>
-      </c>
-      <c r="B15" s="47">
-        <v>1.8732147814747671</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="54">
-        <v>2.4286950079446923</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="54">
-        <v>3.5575603427036349</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="54">
-        <v>4.4579622007867004</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="54">
-        <v>5.8274012969427993</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="L15" s="54">
-        <v>4.6809219561540134</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
-        <v>12000</v>
-      </c>
-      <c r="B16" s="51">
-        <v>1.8943505579173707</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="55">
-        <v>2.4569290948491949</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="55">
-        <v>3.6448149129824752</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="55">
-        <v>4.5682871342888607</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="55">
-        <v>5.9736069095473843</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="55">
-        <v>4.8061543851922934</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="31">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6913,381 +6476,188 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D5D97B-B642-40E3-AB20-BD46F211216A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
-      <c r="B3" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="98"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="115"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="112">
         <v>0</v>
       </c>
-      <c r="B4" s="43">
-        <v>3.0908925153768592</v>
-      </c>
-      <c r="C4" s="40">
-        <v>3.9884054401532811</v>
-      </c>
-      <c r="D4" s="40">
-        <v>5.1731115705978841</v>
-      </c>
-      <c r="E4" s="40">
-        <v>6.4190334712435293</v>
-      </c>
-      <c r="F4" s="40">
-        <v>8.3586723044150499</v>
-      </c>
-      <c r="G4" s="41">
+      <c r="B4" s="116">
         <v>6.5126253717769398</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="C4" s="117"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="113">
         <v>300</v>
       </c>
-      <c r="B5" s="22">
-        <v>3.1209621892916881</v>
-      </c>
-      <c r="C5" s="21">
-        <v>4.028788354380465</v>
-      </c>
-      <c r="D5" s="21">
-        <v>5.2823361047163635</v>
-      </c>
-      <c r="E5" s="21">
-        <v>6.5566874631271581</v>
-      </c>
-      <c r="F5" s="21">
-        <v>8.542445162997403</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="B5" s="118">
         <v>6.6673089952292433</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="C5" s="65"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="113">
         <v>600</v>
       </c>
-      <c r="B6" s="22">
-        <v>3.1516790933084238</v>
-      </c>
-      <c r="C6" s="21">
-        <v>4.0700307053003444</v>
-      </c>
-      <c r="D6" s="21">
-        <v>5.3952650680593806</v>
-      </c>
-      <c r="E6" s="21">
-        <v>6.6989416281939986</v>
-      </c>
-      <c r="F6" s="21">
-        <v>8.7323082053192334</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="B6" s="118">
         <v>6.8271914682392847</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="C6" s="65"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="113">
         <v>900</v>
       </c>
-      <c r="B7" s="22">
-        <v>3.183064448086145</v>
-      </c>
-      <c r="C7" s="21">
-        <v>4.112153713571999</v>
-      </c>
-      <c r="D7" s="21">
-        <v>5.5120316117957087</v>
-      </c>
-      <c r="E7" s="21">
-        <v>6.8460300818800315</v>
-      </c>
-      <c r="F7" s="21">
-        <v>8.928491763441059</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="B7" s="118">
         <v>6.9924231010204885</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="113">
         <v>1200</v>
       </c>
-      <c r="B8" s="22">
-        <v>3.2151288639543925</v>
-      </c>
-      <c r="C8" s="21">
-        <v>4.155189210184048</v>
-      </c>
-      <c r="D8" s="21">
-        <v>5.6327956726390225</v>
-      </c>
-      <c r="E8" s="21">
-        <v>6.998094337576485</v>
-      </c>
-      <c r="F8" s="21">
-        <v>9.1312335415107047</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="B8" s="118">
         <v>7.1632385677332167</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="113">
         <v>1500</v>
       </c>
-      <c r="B9" s="22">
-        <v>3.2479041719017836</v>
-      </c>
-      <c r="C9" s="21">
-        <v>4.1991478054660298</v>
-      </c>
-      <c r="D9" s="21">
-        <v>5.7576996999849346</v>
-      </c>
-      <c r="E9" s="21">
-        <v>7.1553566253088876</v>
-      </c>
-      <c r="F9" s="21">
-        <v>9.3407492292159056</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="B9" s="118">
         <v>7.3398535682862676</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="C9" s="65"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="113">
         <v>1800</v>
       </c>
-      <c r="B10" s="22">
-        <v>3.2814009822578578</v>
-      </c>
-      <c r="C10" s="21">
-        <v>4.244061330406562</v>
-      </c>
-      <c r="D10" s="21">
-        <v>5.8869603015364893</v>
-      </c>
-      <c r="E10" s="21">
-        <v>7.3180210387606133</v>
-      </c>
-      <c r="F10" s="21">
-        <v>9.5573507647023135</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="B10" s="118">
         <v>7.5224908441673399</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="C10" s="65"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="113">
         <v>2100</v>
       </c>
-      <c r="B11" s="22">
-        <v>3.3156405156816939</v>
-      </c>
-      <c r="C11" s="21">
-        <v>4.2899616159942653</v>
-      </c>
-      <c r="D11" s="21">
-        <v>6.020708128062517</v>
-      </c>
-      <c r="E11" s="21">
-        <v>7.4862984268405421</v>
-      </c>
-      <c r="F11" s="21">
-        <v>9.7813005059842784</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="B11" s="118">
         <v>7.7114083178567814</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="C11" s="65"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="113">
         <v>2400</v>
       </c>
-      <c r="B12" s="22">
-        <v>3.3506546031619115</v>
-      </c>
-      <c r="C12" s="21">
-        <v>4.3368804932177563</v>
-      </c>
-      <c r="D12" s="21">
-        <v>6.1591728481536681</v>
-      </c>
-      <c r="E12" s="21">
-        <v>7.6604066054635371</v>
-      </c>
-      <c r="F12" s="21">
-        <v>10.012869147214456</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="B12" s="118">
         <v>7.9068163040151127</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="C12" s="65"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="113">
         <v>2700</v>
       </c>
-      <c r="B13" s="22">
-        <v>3.3864538550280487</v>
-      </c>
-      <c r="C13" s="21">
-        <v>4.3848285724065743</v>
-      </c>
-      <c r="D13" s="21">
-        <v>6.3024960954554254</v>
-      </c>
-      <c r="E13" s="21">
-        <v>7.8406247517768275</v>
-      </c>
-      <c r="F13" s="21">
-        <v>10.252335961536325</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="B13" s="118">
         <v>8.1090173888664943</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="113">
         <v>3000</v>
       </c>
-      <c r="B14" s="22">
-        <v>3.4230701022687233</v>
-      </c>
-      <c r="C14" s="21">
-        <v>4.4338376845493386</v>
-      </c>
-      <c r="D14" s="21">
-        <v>6.4509214402446071</v>
-      </c>
-      <c r="E14" s="21">
-        <v>8.0271325839373393</v>
-      </c>
-      <c r="F14" s="21">
-        <v>10.500020719457922</v>
-      </c>
-      <c r="G14" s="25">
+      <c r="B14" s="118">
         <v>8.3182380055025291</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="113">
         <v>3300</v>
       </c>
-      <c r="B15" s="22">
-        <v>3.4605245655430164</v>
-      </c>
-      <c r="C15" s="21">
-        <v>4.4839608812937461</v>
-      </c>
-      <c r="D15" s="21">
-        <v>6.6046519993977046</v>
-      </c>
-      <c r="E15" s="21">
-        <v>8.2202258697638975</v>
-      </c>
-      <c r="F15" s="21">
-        <v>10.756286131277854</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="B15" s="118">
         <v>8.534799706794443</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
+      <c r="C15" s="65"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114">
         <v>3600</v>
       </c>
-      <c r="B16" s="24">
-        <v>3.4988278551804659</v>
-      </c>
-      <c r="C16" s="23">
-        <v>4.535198162639797</v>
-      </c>
-      <c r="D16" s="23">
-        <v>6.7638977673424296</v>
-      </c>
-      <c r="E16" s="23">
-        <v>8.4201831199084332</v>
-      </c>
-      <c r="F16" s="23">
-        <v>11.021377650402226</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="B16" s="119">
         <v>8.7589461107446276</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="128" t="s">
-        <v>200</v>
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="18">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
